--- a/Code/Results/Cases/Case_4_124/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_124/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9835694837975828</v>
+        <v>1.030043103348618</v>
       </c>
       <c r="D2">
-        <v>1.005594139030143</v>
+        <v>1.034060109576233</v>
       </c>
       <c r="E2">
-        <v>0.9918604696223489</v>
+        <v>1.033679356161622</v>
       </c>
       <c r="F2">
-        <v>0.9936633876013093</v>
+        <v>1.03945324294509</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039118811014706</v>
+        <v>1.033898326160537</v>
       </c>
       <c r="J2">
-        <v>1.006252986095329</v>
+        <v>1.035186531408275</v>
       </c>
       <c r="K2">
-        <v>1.016976084912271</v>
+        <v>1.036860669823648</v>
       </c>
       <c r="L2">
-        <v>1.003434377973704</v>
+        <v>1.036481011334414</v>
       </c>
       <c r="M2">
-        <v>1.005211713149043</v>
+        <v>1.042238387803358</v>
       </c>
       <c r="N2">
-        <v>1.004296117422987</v>
+        <v>1.015472065551848</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9915299279181961</v>
+        <v>1.031560454322792</v>
       </c>
       <c r="D3">
-        <v>1.011738056014916</v>
+        <v>1.035227976904537</v>
       </c>
       <c r="E3">
-        <v>0.9992752140640861</v>
+        <v>1.035145621879192</v>
       </c>
       <c r="F3">
-        <v>1.00193302844758</v>
+        <v>1.041094975434854</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041984190401964</v>
+        <v>1.03432305468253</v>
       </c>
       <c r="J3">
-        <v>1.012254189431114</v>
+        <v>1.036342271214647</v>
       </c>
       <c r="K3">
-        <v>1.022222917326539</v>
+        <v>1.037836690274446</v>
       </c>
       <c r="L3">
-        <v>1.009917377069382</v>
+        <v>1.037754554702258</v>
       </c>
       <c r="M3">
-        <v>1.012541235419981</v>
+        <v>1.043688151422883</v>
       </c>
       <c r="N3">
-        <v>1.006495202868816</v>
+        <v>1.015878601457215</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9965085460932857</v>
+        <v>1.032540104785392</v>
       </c>
       <c r="D4">
-        <v>1.015582397994756</v>
+        <v>1.03598159183038</v>
       </c>
       <c r="E4">
-        <v>1.003918643638454</v>
+        <v>1.036092612784714</v>
       </c>
       <c r="F4">
-        <v>1.007109878270412</v>
+        <v>1.042155349343132</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043760095508656</v>
+        <v>1.034595265467389</v>
       </c>
       <c r="J4">
-        <v>1.016001987262544</v>
+        <v>1.037087598825487</v>
       </c>
       <c r="K4">
-        <v>1.025496325677763</v>
+        <v>1.038465603081561</v>
       </c>
       <c r="L4">
-        <v>1.013970003047332</v>
+        <v>1.038576343296949</v>
       </c>
       <c r="M4">
-        <v>1.017123244068383</v>
+        <v>1.044623846811822</v>
       </c>
       <c r="N4">
-        <v>1.007865823715855</v>
+        <v>1.016140200613545</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9985628557563248</v>
+        <v>1.032951438602859</v>
       </c>
       <c r="D5">
-        <v>1.017168980215697</v>
+        <v>1.036297921841922</v>
       </c>
       <c r="E5">
-        <v>1.005836029423927</v>
+        <v>1.036490310233573</v>
       </c>
       <c r="F5">
-        <v>1.009247132903945</v>
+        <v>1.042600677555253</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044488931834523</v>
+        <v>1.03470907959447</v>
       </c>
       <c r="J5">
-        <v>1.0175470475283</v>
+        <v>1.037400340421855</v>
       </c>
       <c r="K5">
-        <v>1.026844995962224</v>
+        <v>1.038729372801183</v>
       </c>
       <c r="L5">
-        <v>1.015641679299846</v>
+        <v>1.03892128567925</v>
       </c>
       <c r="M5">
-        <v>1.019013386071906</v>
+        <v>1.045016648604854</v>
       </c>
       <c r="N5">
-        <v>1.0084301830874</v>
+        <v>1.016249830834757</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9989055836337276</v>
+        <v>1.033020473669664</v>
       </c>
       <c r="D6">
-        <v>1.017433689757144</v>
+        <v>1.036351006518666</v>
       </c>
       <c r="E6">
-        <v>1.006155992987123</v>
+        <v>1.036557061157427</v>
       </c>
       <c r="F6">
-        <v>1.009603765974986</v>
+        <v>1.042675423867946</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044610291888482</v>
+        <v>1.034728153030359</v>
       </c>
       <c r="J6">
-        <v>1.017804732427368</v>
+        <v>1.037452816490562</v>
       </c>
       <c r="K6">
-        <v>1.027069877873878</v>
+        <v>1.03877362441469</v>
       </c>
       <c r="L6">
-        <v>1.015920537040666</v>
+        <v>1.038979171735025</v>
       </c>
       <c r="M6">
-        <v>1.019328694023806</v>
+        <v>1.045082568928962</v>
       </c>
       <c r="N6">
-        <v>1.008524265217341</v>
+        <v>1.016268218015649</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9965361447556038</v>
+        <v>1.032545603044523</v>
       </c>
       <c r="D7">
-        <v>1.015603711921677</v>
+        <v>1.035985820563491</v>
       </c>
       <c r="E7">
-        <v>1.003944397414289</v>
+        <v>1.036097928467162</v>
       </c>
       <c r="F7">
-        <v>1.00713858672523</v>
+        <v>1.042161301607215</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043769902809787</v>
+        <v>1.034596788702476</v>
       </c>
       <c r="J7">
-        <v>1.016022749957387</v>
+        <v>1.037091780019224</v>
       </c>
       <c r="K7">
-        <v>1.025514452549022</v>
+        <v>1.038469130034502</v>
       </c>
       <c r="L7">
-        <v>1.013992463462086</v>
+        <v>1.038580954536164</v>
       </c>
       <c r="M7">
-        <v>1.017148639301887</v>
+        <v>1.044629097654971</v>
       </c>
       <c r="N7">
-        <v>1.007873410423086</v>
+        <v>1.016141666854403</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9862970505350545</v>
+        <v>1.030556356009267</v>
       </c>
       <c r="D8">
-        <v>1.007698822696263</v>
+        <v>1.034455229127037</v>
       </c>
       <c r="E8">
-        <v>0.9943997143592057</v>
+        <v>1.034175261659002</v>
       </c>
       <c r="F8">
-        <v>0.9964958604938963</v>
+        <v>1.040008481610951</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040103978834453</v>
+        <v>1.034042408961948</v>
       </c>
       <c r="J8">
-        <v>1.008310353577244</v>
+        <v>1.035577644057593</v>
       </c>
       <c r="K8">
-        <v>1.018775508712752</v>
+        <v>1.037191070429418</v>
       </c>
       <c r="L8">
-        <v>1.00565608329036</v>
+        <v>1.036911888069478</v>
       </c>
       <c r="M8">
-        <v>1.007723507730238</v>
+        <v>1.042728844706125</v>
       </c>
       <c r="N8">
-        <v>1.005050574775514</v>
+        <v>1.01560975951882</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9668051941904682</v>
+        <v>1.027033926408934</v>
       </c>
       <c r="D9">
-        <v>0.9926722898685736</v>
+        <v>1.031741952004229</v>
       </c>
       <c r="E9">
-        <v>0.9762840967398071</v>
+        <v>1.030773237266643</v>
       </c>
       <c r="F9">
-        <v>0.9762761991869007</v>
+        <v>1.036199622837501</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032996512484092</v>
+        <v>1.033045332614541</v>
       </c>
       <c r="J9">
-        <v>0.993587174235395</v>
+        <v>1.032889953196096</v>
       </c>
       <c r="K9">
-        <v>1.005885383476625</v>
+        <v>1.034918482936103</v>
       </c>
       <c r="L9">
-        <v>0.9897740356964368</v>
+        <v>1.033952960222026</v>
       </c>
       <c r="M9">
-        <v>0.989766274454562</v>
+        <v>1.039361549557324</v>
       </c>
       <c r="N9">
-        <v>0.9996411876146111</v>
+        <v>1.014661192793068</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9526272291323855</v>
+        <v>1.024673498351149</v>
       </c>
       <c r="D10">
-        <v>0.9817683186614484</v>
+        <v>1.029921799288834</v>
       </c>
       <c r="E10">
-        <v>0.9631514200085268</v>
+        <v>1.028495220527489</v>
       </c>
       <c r="F10">
-        <v>0.9615979208921257</v>
+        <v>1.033649410710062</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027744148213055</v>
+        <v>1.032366835855045</v>
       </c>
       <c r="J10">
-        <v>0.9828551745027044</v>
+        <v>1.031084508906606</v>
       </c>
       <c r="K10">
-        <v>0.9964747433742839</v>
+        <v>1.033389256056277</v>
       </c>
       <c r="L10">
-        <v>0.9782194608231016</v>
+        <v>1.031967848844481</v>
       </c>
       <c r="M10">
-        <v>0.97669696966305</v>
+        <v>1.037103428738991</v>
       </c>
       <c r="N10">
-        <v>0.9956870409530585</v>
+        <v>1.014021061959145</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9461504936737047</v>
+        <v>1.023648386189367</v>
       </c>
       <c r="D11">
-        <v>0.9767963202829812</v>
+        <v>1.029130877410357</v>
       </c>
       <c r="E11">
-        <v>0.9571646035028041</v>
+        <v>1.027506316492274</v>
       </c>
       <c r="F11">
-        <v>0.9548998763795659</v>
+        <v>1.032542386772945</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025326584835778</v>
+        <v>1.032069724625474</v>
       </c>
       <c r="J11">
-        <v>0.9779487085193032</v>
+        <v>1.03029938644323</v>
       </c>
       <c r="K11">
-        <v>0.9921695042060247</v>
+        <v>1.032723634150022</v>
       </c>
       <c r="L11">
-        <v>0.972942215885688</v>
+        <v>1.031105195811052</v>
       </c>
       <c r="M11">
-        <v>0.9707255614298721</v>
+        <v>1.036122355782898</v>
       </c>
       <c r="N11">
-        <v>0.9938773689530879</v>
+        <v>1.013742001100493</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9436882268908604</v>
+        <v>1.023267146251724</v>
       </c>
       <c r="D12">
-        <v>0.9749077709794048</v>
+        <v>1.028836667280061</v>
       </c>
       <c r="E12">
-        <v>0.9548906431074525</v>
+        <v>1.027138605824287</v>
       </c>
       <c r="F12">
-        <v>0.952354592972474</v>
+        <v>1.032130760220789</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024404904097113</v>
+        <v>1.031958861764741</v>
       </c>
       <c r="J12">
-        <v>0.9760829731701817</v>
+        <v>1.030007243872232</v>
       </c>
       <c r="K12">
-        <v>0.9905320220098681</v>
+        <v>1.032475865437336</v>
       </c>
       <c r="L12">
-        <v>0.9709362851467274</v>
+        <v>1.030784294340017</v>
       </c>
       <c r="M12">
-        <v>0.9684553023938837</v>
+        <v>1.035757435139102</v>
       </c>
       <c r="N12">
-        <v>0.9931890059563704</v>
+        <v>1.013638059685872</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9442190526369253</v>
+        <v>1.023348944871667</v>
       </c>
       <c r="D13">
-        <v>0.9753148323846751</v>
+        <v>1.028899795787308</v>
       </c>
       <c r="E13">
-        <v>0.9553807770635349</v>
+        <v>1.02721749873046</v>
       </c>
       <c r="F13">
-        <v>0.9529032648229934</v>
+        <v>1.032219075119354</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02460371839584</v>
+        <v>1.031982665030853</v>
       </c>
       <c r="J13">
-        <v>0.9764852134149794</v>
+        <v>1.030069932816822</v>
       </c>
       <c r="K13">
-        <v>0.9908850679771908</v>
+        <v>1.032529036645576</v>
       </c>
       <c r="L13">
-        <v>0.9713687145830506</v>
+        <v>1.030853150393233</v>
       </c>
       <c r="M13">
-        <v>0.9689447377973579</v>
+        <v>1.035835734967194</v>
       </c>
       <c r="N13">
-        <v>0.9933374210064736</v>
+        <v>1.013660368458553</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9459481518396887</v>
+        <v>1.023616882388014</v>
       </c>
       <c r="D14">
-        <v>0.9766410894474238</v>
+        <v>1.029106566658613</v>
       </c>
       <c r="E14">
-        <v>0.9569776933808538</v>
+        <v>1.027475929385799</v>
       </c>
       <c r="F14">
-        <v>0.9546906896500436</v>
+        <v>1.032508370412839</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025250895467381</v>
+        <v>1.032060570941874</v>
       </c>
       <c r="J14">
-        <v>0.9777953958602237</v>
+        <v>1.030275248369326</v>
       </c>
       <c r="K14">
-        <v>0.9920349548451417</v>
+        <v>1.032703164308965</v>
       </c>
       <c r="L14">
-        <v>0.9727773668208597</v>
+        <v>1.031078679717284</v>
       </c>
       <c r="M14">
-        <v>0.9705389999009228</v>
+        <v>1.036092201729756</v>
       </c>
       <c r="N14">
-        <v>0.9938208081931165</v>
+        <v>1.013733415120128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9470058280010288</v>
+        <v>1.023781905200534</v>
       </c>
       <c r="D15">
-        <v>0.9774525773417585</v>
+        <v>1.029233908247605</v>
       </c>
       <c r="E15">
-        <v>0.9579547897683753</v>
+        <v>1.027635105342299</v>
       </c>
       <c r="F15">
-        <v>0.9557841908438212</v>
+        <v>1.032686557606419</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025646432712353</v>
+        <v>1.032108504633062</v>
       </c>
       <c r="J15">
-        <v>0.9785967710489731</v>
+        <v>1.030401681781289</v>
       </c>
       <c r="K15">
-        <v>0.9927382384520903</v>
+        <v>1.03281038002906</v>
       </c>
       <c r="L15">
-        <v>0.973639075905816</v>
+        <v>1.031217572703808</v>
       </c>
       <c r="M15">
-        <v>0.9715141858851233</v>
+        <v>1.036250151896454</v>
       </c>
       <c r="N15">
-        <v>0.9941164466184224</v>
+        <v>1.013778383609219</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9530494820634705</v>
+        <v>1.024741466763418</v>
       </c>
       <c r="D16">
-        <v>0.9820926811344297</v>
+        <v>1.029974230812133</v>
       </c>
       <c r="E16">
-        <v>0.9635420035472473</v>
+        <v>1.028560797066558</v>
       </c>
       <c r="F16">
-        <v>0.9620347539205638</v>
+        <v>1.033722820864877</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027901398380873</v>
+        <v>1.032386483902372</v>
       </c>
       <c r="J16">
-        <v>0.9831749845559571</v>
+        <v>1.031136543454952</v>
       </c>
       <c r="K16">
-        <v>0.9967553104654172</v>
+        <v>1.03343335770103</v>
       </c>
       <c r="L16">
-        <v>0.9785635479129876</v>
+        <v>1.032025034402085</v>
       </c>
       <c r="M16">
-        <v>0.9770862597409576</v>
+        <v>1.037168468952153</v>
       </c>
       <c r="N16">
-        <v>0.995804964180066</v>
+        <v>1.014039542415781</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9567463135001483</v>
+        <v>1.025342554235766</v>
       </c>
       <c r="D17">
-        <v>0.9849335344714311</v>
+        <v>1.030437864476788</v>
       </c>
       <c r="E17">
-        <v>0.9669629821407887</v>
+        <v>1.029140779957857</v>
       </c>
       <c r="F17">
-        <v>0.9658600507751784</v>
+        <v>1.034372091866654</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029276098804776</v>
+        <v>1.032559961856622</v>
       </c>
       <c r="J17">
-        <v>0.9859745039082409</v>
+        <v>1.031596598453606</v>
       </c>
       <c r="K17">
-        <v>0.9992109931516612</v>
+        <v>1.033823204239409</v>
       </c>
       <c r="L17">
-        <v>0.9815761744954115</v>
+        <v>1.032530700376939</v>
       </c>
       <c r="M17">
-        <v>0.9804943813343183</v>
+        <v>1.037743615309382</v>
       </c>
       <c r="N17">
-        <v>0.9968370212269142</v>
+        <v>1.014202854762011</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9588704782346653</v>
+        <v>1.02569286675069</v>
       </c>
       <c r="D18">
-        <v>0.9865666937819551</v>
+        <v>1.030708026124561</v>
       </c>
       <c r="E18">
-        <v>0.9689297906343523</v>
+        <v>1.029478832947077</v>
       </c>
       <c r="F18">
-        <v>0.9680587049950508</v>
+        <v>1.034750534743204</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030064279425277</v>
+        <v>1.03266082878505</v>
       </c>
       <c r="J18">
-        <v>0.9875827062176921</v>
+        <v>1.031864617855303</v>
       </c>
       <c r="K18">
-        <v>1.000621403582942</v>
+        <v>1.034050262150861</v>
       </c>
       <c r="L18">
-        <v>0.9833072910530054</v>
+        <v>1.03282534964204</v>
       </c>
       <c r="M18">
-        <v>0.9824525460960134</v>
+        <v>1.038078771655011</v>
       </c>
       <c r="N18">
-        <v>0.9974297097809867</v>
+        <v>1.014297930926823</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9595894743259945</v>
+        <v>1.025812265166568</v>
       </c>
       <c r="D19">
-        <v>0.9871196254752327</v>
+        <v>1.030800099052842</v>
       </c>
       <c r="E19">
-        <v>0.9695957134450042</v>
+        <v>1.029594059693928</v>
       </c>
       <c r="F19">
-        <v>0.9688030281488985</v>
+        <v>1.034879529275592</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03033077226742</v>
+        <v>1.032695167675392</v>
       </c>
       <c r="J19">
-        <v>0.9881269895325914</v>
+        <v>1.0319559510578</v>
       </c>
       <c r="K19">
-        <v>1.001098697849237</v>
+        <v>1.034127626786198</v>
       </c>
       <c r="L19">
-        <v>0.9838932573448459</v>
+        <v>1.032925767326775</v>
       </c>
       <c r="M19">
-        <v>0.9831153333503933</v>
+        <v>1.038192997932591</v>
       </c>
       <c r="N19">
-        <v>0.997630267450103</v>
+        <v>1.014330318814028</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.956353041262399</v>
+        <v>1.02527809349254</v>
       </c>
       <c r="D20">
-        <v>0.9846312335218912</v>
+        <v>1.030388148755477</v>
       </c>
       <c r="E20">
-        <v>0.9665989348886151</v>
+        <v>1.029078578311866</v>
       </c>
       <c r="F20">
-        <v>0.9654530418988755</v>
+        <v>1.034302458832412</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029130033842666</v>
+        <v>1.032541382424659</v>
       </c>
       <c r="J20">
-        <v>0.9856767266037924</v>
+        <v>1.031547272372416</v>
       </c>
       <c r="K20">
-        <v>0.9989498167766965</v>
+        <v>1.033781411893189</v>
       </c>
       <c r="L20">
-        <v>0.9812556781993136</v>
+        <v>1.032476478010482</v>
       </c>
       <c r="M20">
-        <v>0.9801318333110909</v>
+        <v>1.037681940402027</v>
       </c>
       <c r="N20">
-        <v>0.9967272627170043</v>
+        <v>1.014185351655622</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9454405867766928</v>
+        <v>1.023537994475494</v>
       </c>
       <c r="D21">
-        <v>0.9762517278459011</v>
+        <v>1.029045689632048</v>
       </c>
       <c r="E21">
-        <v>0.9565088717159353</v>
+        <v>1.027399838789037</v>
       </c>
       <c r="F21">
-        <v>0.9541659725602164</v>
+        <v>1.032423192096106</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025060991069675</v>
+        <v>1.03203764349788</v>
       </c>
       <c r="J21">
-        <v>0.9774108116779129</v>
+        <v>1.030214802296969</v>
       </c>
       <c r="K21">
-        <v>0.9916974326069072</v>
+        <v>1.032651902665609</v>
       </c>
       <c r="L21">
-        <v>0.9723638564267815</v>
+        <v>1.031012280110298</v>
       </c>
       <c r="M21">
-        <v>0.9700710175845972</v>
+        <v>1.036016692737681</v>
       </c>
       <c r="N21">
-        <v>0.9936789225402629</v>
+        <v>1.013711912615023</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9382488799575682</v>
+        <v>1.022441213409959</v>
       </c>
       <c r="D22">
-        <v>0.9707392391826588</v>
+        <v>1.02819916035781</v>
       </c>
       <c r="E22">
-        <v>0.949871310158282</v>
+        <v>1.026342100150132</v>
       </c>
       <c r="F22">
-        <v>0.9467339596727434</v>
+        <v>1.031239136334464</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022364214447115</v>
+        <v>1.031718013353716</v>
       </c>
       <c r="J22">
-        <v>0.9719607829056058</v>
+        <v>1.029374051959243</v>
       </c>
       <c r="K22">
-        <v>0.9869135307175142</v>
+        <v>1.031938681829184</v>
       </c>
       <c r="L22">
-        <v>0.9665058226807854</v>
+        <v>1.030088934935417</v>
       </c>
       <c r="M22">
-        <v>0.9634400073655699</v>
+        <v>1.034966749194632</v>
       </c>
       <c r="N22">
-        <v>0.9916678105128842</v>
+        <v>1.01341258754947</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9420948761601243</v>
+        <v>1.02302289895955</v>
       </c>
       <c r="D23">
-        <v>0.9736861848814832</v>
+        <v>1.028648158648974</v>
       </c>
       <c r="E23">
-        <v>0.9534197518033511</v>
+        <v>1.026903044216543</v>
       </c>
       <c r="F23">
-        <v>0.9507078410522241</v>
+        <v>1.031867066771559</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023807765662633</v>
+        <v>1.03188773250074</v>
       </c>
       <c r="J23">
-        <v>0.9748755386557852</v>
+        <v>1.02982003462237</v>
       </c>
       <c r="K23">
-        <v>0.9894722086283738</v>
+        <v>1.032317065752057</v>
       </c>
       <c r="L23">
-        <v>0.969638346650639</v>
+        <v>1.030578681314485</v>
       </c>
       <c r="M23">
-        <v>0.9669861813085565</v>
+        <v>1.035523626463525</v>
       </c>
       <c r="N23">
-        <v>0.9927434716763057</v>
+        <v>1.013571423442333</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.956530842936099</v>
+        <v>1.025307221428903</v>
       </c>
       <c r="D24">
-        <v>0.984767903748848</v>
+        <v>1.030410613978259</v>
       </c>
       <c r="E24">
-        <v>0.9667635201505169</v>
+        <v>1.029106685303691</v>
       </c>
       <c r="F24">
-        <v>0.9656370519267969</v>
+        <v>1.034333923824953</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029196076361796</v>
+        <v>1.032549778658515</v>
       </c>
       <c r="J24">
-        <v>0.9858113553957917</v>
+        <v>1.031569561703078</v>
       </c>
       <c r="K24">
-        <v>0.9990678986895046</v>
+        <v>1.033800297084483</v>
       </c>
       <c r="L24">
-        <v>0.9814005769933135</v>
+        <v>1.032500979682135</v>
       </c>
       <c r="M24">
-        <v>0.9802957446568934</v>
+        <v>1.037709809616799</v>
       </c>
       <c r="N24">
-        <v>0.9967768864686183</v>
+        <v>1.014193261115814</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9720358376183288</v>
+        <v>1.027946652436432</v>
       </c>
       <c r="D25">
-        <v>0.9967011204265659</v>
+        <v>1.032445359818908</v>
       </c>
       <c r="E25">
-        <v>0.9811384991558596</v>
+        <v>1.031654463336633</v>
       </c>
       <c r="F25">
-        <v>0.9816973361000514</v>
+        <v>1.037186188244094</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034918164659535</v>
+        <v>1.033305514207381</v>
       </c>
       <c r="J25">
-        <v>0.9975424007992867</v>
+        <v>1.033587156266984</v>
       </c>
       <c r="K25">
-        <v>1.009350864022814</v>
+        <v>1.035508469239016</v>
       </c>
       <c r="L25">
-        <v>0.9940368469190282</v>
+        <v>1.034720078111733</v>
       </c>
       <c r="M25">
-        <v>0.9945865814872035</v>
+        <v>1.040234367495044</v>
       </c>
       <c r="N25">
-        <v>1.001096460408334</v>
+        <v>1.014907773973715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_124/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_124/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030043103348618</v>
+        <v>0.9835694837975815</v>
       </c>
       <c r="D2">
-        <v>1.034060109576233</v>
+        <v>1.005594139030142</v>
       </c>
       <c r="E2">
-        <v>1.033679356161622</v>
+        <v>0.9918604696223475</v>
       </c>
       <c r="F2">
-        <v>1.03945324294509</v>
+        <v>0.9936633876013087</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033898326160537</v>
+        <v>1.039118811014705</v>
       </c>
       <c r="J2">
-        <v>1.035186531408275</v>
+        <v>1.006252986095328</v>
       </c>
       <c r="K2">
-        <v>1.036860669823648</v>
+        <v>1.016976084912269</v>
       </c>
       <c r="L2">
-        <v>1.036481011334414</v>
+        <v>1.003434377973702</v>
       </c>
       <c r="M2">
-        <v>1.042238387803358</v>
+        <v>1.005211713149043</v>
       </c>
       <c r="N2">
-        <v>1.015472065551848</v>
+        <v>1.004296117422987</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031560454322792</v>
+        <v>0.9915299279181953</v>
       </c>
       <c r="D3">
-        <v>1.035227976904537</v>
+        <v>1.011738056014916</v>
       </c>
       <c r="E3">
-        <v>1.035145621879192</v>
+        <v>0.9992752140640853</v>
       </c>
       <c r="F3">
-        <v>1.041094975434854</v>
+        <v>1.00193302844758</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03432305468253</v>
+        <v>1.041984190401964</v>
       </c>
       <c r="J3">
-        <v>1.036342271214647</v>
+        <v>1.012254189431113</v>
       </c>
       <c r="K3">
-        <v>1.037836690274446</v>
+        <v>1.022222917326539</v>
       </c>
       <c r="L3">
-        <v>1.037754554702258</v>
+        <v>1.009917377069381</v>
       </c>
       <c r="M3">
-        <v>1.043688151422883</v>
+        <v>1.012541235419981</v>
       </c>
       <c r="N3">
-        <v>1.015878601457215</v>
+        <v>1.006495202868815</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032540104785392</v>
+        <v>0.9965085460932855</v>
       </c>
       <c r="D4">
-        <v>1.03598159183038</v>
+        <v>1.015582397994756</v>
       </c>
       <c r="E4">
-        <v>1.036092612784714</v>
+        <v>1.003918643638453</v>
       </c>
       <c r="F4">
-        <v>1.042155349343132</v>
+        <v>1.007109878270412</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034595265467389</v>
+        <v>1.043760095508657</v>
       </c>
       <c r="J4">
-        <v>1.037087598825487</v>
+        <v>1.016001987262544</v>
       </c>
       <c r="K4">
-        <v>1.038465603081561</v>
+        <v>1.025496325677763</v>
       </c>
       <c r="L4">
-        <v>1.038576343296949</v>
+        <v>1.013970003047332</v>
       </c>
       <c r="M4">
-        <v>1.044623846811822</v>
+        <v>1.017123244068384</v>
       </c>
       <c r="N4">
-        <v>1.016140200613545</v>
+        <v>1.007865823715855</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032951438602859</v>
+        <v>0.9985628557563272</v>
       </c>
       <c r="D5">
-        <v>1.036297921841922</v>
+        <v>1.017168980215699</v>
       </c>
       <c r="E5">
-        <v>1.036490310233573</v>
+        <v>1.005836029423929</v>
       </c>
       <c r="F5">
-        <v>1.042600677555253</v>
+        <v>1.009247132903946</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03470907959447</v>
+        <v>1.044488931834524</v>
       </c>
       <c r="J5">
-        <v>1.037400340421855</v>
+        <v>1.017547047528303</v>
       </c>
       <c r="K5">
-        <v>1.038729372801183</v>
+        <v>1.026844995962226</v>
       </c>
       <c r="L5">
-        <v>1.03892128567925</v>
+        <v>1.015641679299848</v>
       </c>
       <c r="M5">
-        <v>1.045016648604854</v>
+        <v>1.019013386071908</v>
       </c>
       <c r="N5">
-        <v>1.016249830834757</v>
+        <v>1.0084301830874</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033020473669664</v>
+        <v>0.9989055836337273</v>
       </c>
       <c r="D6">
-        <v>1.036351006518666</v>
+        <v>1.017433689757144</v>
       </c>
       <c r="E6">
-        <v>1.036557061157427</v>
+        <v>1.006155992987122</v>
       </c>
       <c r="F6">
-        <v>1.042675423867946</v>
+        <v>1.009603765974986</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034728153030359</v>
+        <v>1.044610291888482</v>
       </c>
       <c r="J6">
-        <v>1.037452816490562</v>
+        <v>1.017804732427368</v>
       </c>
       <c r="K6">
-        <v>1.03877362441469</v>
+        <v>1.027069877873878</v>
       </c>
       <c r="L6">
-        <v>1.038979171735025</v>
+        <v>1.015920537040666</v>
       </c>
       <c r="M6">
-        <v>1.045082568928962</v>
+        <v>1.019328694023805</v>
       </c>
       <c r="N6">
-        <v>1.016268218015649</v>
+        <v>1.008524265217341</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032545603044523</v>
+        <v>0.9965361447556036</v>
       </c>
       <c r="D7">
-        <v>1.035985820563491</v>
+        <v>1.015603711921677</v>
       </c>
       <c r="E7">
-        <v>1.036097928467162</v>
+        <v>1.003944397414288</v>
       </c>
       <c r="F7">
-        <v>1.042161301607215</v>
+        <v>1.00713858672523</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034596788702476</v>
+        <v>1.043769902809787</v>
       </c>
       <c r="J7">
-        <v>1.037091780019224</v>
+        <v>1.016022749957387</v>
       </c>
       <c r="K7">
-        <v>1.038469130034502</v>
+        <v>1.025514452549022</v>
       </c>
       <c r="L7">
-        <v>1.038580954536164</v>
+        <v>1.013992463462086</v>
       </c>
       <c r="M7">
-        <v>1.044629097654971</v>
+        <v>1.017148639301887</v>
       </c>
       <c r="N7">
-        <v>1.016141666854403</v>
+        <v>1.007873410423086</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030556356009267</v>
+        <v>0.9862970505350541</v>
       </c>
       <c r="D8">
-        <v>1.034455229127037</v>
+        <v>1.007698822696262</v>
       </c>
       <c r="E8">
-        <v>1.034175261659002</v>
+        <v>0.9943997143592056</v>
       </c>
       <c r="F8">
-        <v>1.040008481610951</v>
+        <v>0.9964958604938959</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034042408961948</v>
+        <v>1.040103978834453</v>
       </c>
       <c r="J8">
-        <v>1.035577644057593</v>
+        <v>1.008310353577244</v>
       </c>
       <c r="K8">
-        <v>1.037191070429418</v>
+        <v>1.018775508712752</v>
       </c>
       <c r="L8">
-        <v>1.036911888069478</v>
+        <v>1.00565608329036</v>
       </c>
       <c r="M8">
-        <v>1.042728844706125</v>
+        <v>1.007723507730238</v>
       </c>
       <c r="N8">
-        <v>1.01560975951882</v>
+        <v>1.005050574775514</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027033926408934</v>
+        <v>0.9668051941904682</v>
       </c>
       <c r="D9">
-        <v>1.031741952004229</v>
+        <v>0.9926722898685736</v>
       </c>
       <c r="E9">
-        <v>1.030773237266643</v>
+        <v>0.9762840967398067</v>
       </c>
       <c r="F9">
-        <v>1.036199622837501</v>
+        <v>0.9762761991869006</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033045332614541</v>
+        <v>1.032996512484092</v>
       </c>
       <c r="J9">
-        <v>1.032889953196096</v>
+        <v>0.9935871742353949</v>
       </c>
       <c r="K9">
-        <v>1.034918482936103</v>
+        <v>1.005885383476625</v>
       </c>
       <c r="L9">
-        <v>1.033952960222026</v>
+        <v>0.9897740356964366</v>
       </c>
       <c r="M9">
-        <v>1.039361549557324</v>
+        <v>0.9897662744545619</v>
       </c>
       <c r="N9">
-        <v>1.014661192793068</v>
+        <v>0.9996411876146111</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024673498351149</v>
+        <v>0.9526272291323852</v>
       </c>
       <c r="D10">
-        <v>1.029921799288834</v>
+        <v>0.9817683186614485</v>
       </c>
       <c r="E10">
-        <v>1.028495220527489</v>
+        <v>0.9631514200085267</v>
       </c>
       <c r="F10">
-        <v>1.033649410710062</v>
+        <v>0.9615979208921256</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032366835855045</v>
+        <v>1.027744148213055</v>
       </c>
       <c r="J10">
-        <v>1.031084508906606</v>
+        <v>0.9828551745027042</v>
       </c>
       <c r="K10">
-        <v>1.033389256056277</v>
+        <v>0.9964747433742839</v>
       </c>
       <c r="L10">
-        <v>1.031967848844481</v>
+        <v>0.9782194608231014</v>
       </c>
       <c r="M10">
-        <v>1.037103428738991</v>
+        <v>0.9766969696630501</v>
       </c>
       <c r="N10">
-        <v>1.014021061959145</v>
+        <v>0.9956870409530585</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023648386189367</v>
+        <v>0.9461504936737059</v>
       </c>
       <c r="D11">
-        <v>1.029130877410357</v>
+        <v>0.9767963202829825</v>
       </c>
       <c r="E11">
-        <v>1.027506316492274</v>
+        <v>0.9571646035028053</v>
       </c>
       <c r="F11">
-        <v>1.032542386772945</v>
+        <v>0.954899876379567</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032069724625474</v>
+        <v>1.025326584835778</v>
       </c>
       <c r="J11">
-        <v>1.03029938644323</v>
+        <v>0.9779487085193043</v>
       </c>
       <c r="K11">
-        <v>1.032723634150022</v>
+        <v>0.9921695042060259</v>
       </c>
       <c r="L11">
-        <v>1.031105195811052</v>
+        <v>0.9729422158856891</v>
       </c>
       <c r="M11">
-        <v>1.036122355782898</v>
+        <v>0.9707255614298733</v>
       </c>
       <c r="N11">
-        <v>1.013742001100493</v>
+        <v>0.9938773689530883</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023267146251724</v>
+        <v>0.9436882268908613</v>
       </c>
       <c r="D12">
-        <v>1.028836667280061</v>
+        <v>0.9749077709794056</v>
       </c>
       <c r="E12">
-        <v>1.027138605824287</v>
+        <v>0.9548906431074533</v>
       </c>
       <c r="F12">
-        <v>1.032130760220789</v>
+        <v>0.9523545929724753</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031958861764741</v>
+        <v>1.024404904097113</v>
       </c>
       <c r="J12">
-        <v>1.030007243872232</v>
+        <v>0.9760829731701826</v>
       </c>
       <c r="K12">
-        <v>1.032475865437336</v>
+        <v>0.9905320220098688</v>
       </c>
       <c r="L12">
-        <v>1.030784294340017</v>
+        <v>0.9709362851467285</v>
       </c>
       <c r="M12">
-        <v>1.035757435139102</v>
+        <v>0.968455302393885</v>
       </c>
       <c r="N12">
-        <v>1.013638059685872</v>
+        <v>0.9931890059563707</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023348944871667</v>
+        <v>0.9442190526369272</v>
       </c>
       <c r="D13">
-        <v>1.028899795787308</v>
+        <v>0.9753148323846768</v>
       </c>
       <c r="E13">
-        <v>1.02721749873046</v>
+        <v>0.9553807770635372</v>
       </c>
       <c r="F13">
-        <v>1.032219075119354</v>
+        <v>0.952903264822995</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031982665030853</v>
+        <v>1.024603718395841</v>
       </c>
       <c r="J13">
-        <v>1.030069932816822</v>
+        <v>0.9764852134149812</v>
       </c>
       <c r="K13">
-        <v>1.032529036645576</v>
+        <v>0.9908850679771924</v>
       </c>
       <c r="L13">
-        <v>1.030853150393233</v>
+        <v>0.9713687145830525</v>
       </c>
       <c r="M13">
-        <v>1.035835734967194</v>
+        <v>0.9689447377973593</v>
       </c>
       <c r="N13">
-        <v>1.013660368458553</v>
+        <v>0.9933374210064744</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023616882388014</v>
+        <v>0.9459481518396897</v>
       </c>
       <c r="D14">
-        <v>1.029106566658613</v>
+        <v>0.9766410894474247</v>
       </c>
       <c r="E14">
-        <v>1.027475929385799</v>
+        <v>0.9569776933808551</v>
       </c>
       <c r="F14">
-        <v>1.032508370412839</v>
+        <v>0.9546906896500444</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032060570941874</v>
+        <v>1.025250895467381</v>
       </c>
       <c r="J14">
-        <v>1.030275248369326</v>
+        <v>0.9777953958602249</v>
       </c>
       <c r="K14">
-        <v>1.032703164308965</v>
+        <v>0.9920349548451427</v>
       </c>
       <c r="L14">
-        <v>1.031078679717284</v>
+        <v>0.9727773668208609</v>
       </c>
       <c r="M14">
-        <v>1.036092201729756</v>
+        <v>0.9705389999009237</v>
       </c>
       <c r="N14">
-        <v>1.013733415120128</v>
+        <v>0.9938208081931168</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023781905200534</v>
+        <v>0.9470058280010278</v>
       </c>
       <c r="D15">
-        <v>1.029233908247605</v>
+        <v>0.9774525773417579</v>
       </c>
       <c r="E15">
-        <v>1.027635105342299</v>
+        <v>0.9579547897683747</v>
       </c>
       <c r="F15">
-        <v>1.032686557606419</v>
+        <v>0.9557841908438203</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032108504633062</v>
+        <v>1.025646432712352</v>
       </c>
       <c r="J15">
-        <v>1.030401681781289</v>
+        <v>0.9785967710489727</v>
       </c>
       <c r="K15">
-        <v>1.03281038002906</v>
+        <v>0.9927382384520895</v>
       </c>
       <c r="L15">
-        <v>1.031217572703808</v>
+        <v>0.9736390759058153</v>
       </c>
       <c r="M15">
-        <v>1.036250151896454</v>
+        <v>0.9715141858851222</v>
       </c>
       <c r="N15">
-        <v>1.013778383609219</v>
+        <v>0.9941164466184219</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024741466763418</v>
+        <v>0.9530494820634696</v>
       </c>
       <c r="D16">
-        <v>1.029974230812133</v>
+        <v>0.9820926811344286</v>
       </c>
       <c r="E16">
-        <v>1.028560797066558</v>
+        <v>0.9635420035472464</v>
       </c>
       <c r="F16">
-        <v>1.033722820864877</v>
+        <v>0.9620347539205626</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032386483902372</v>
+        <v>1.027901398380872</v>
       </c>
       <c r="J16">
-        <v>1.031136543454952</v>
+        <v>0.9831749845559561</v>
       </c>
       <c r="K16">
-        <v>1.03343335770103</v>
+        <v>0.9967553104654163</v>
       </c>
       <c r="L16">
-        <v>1.032025034402085</v>
+        <v>0.9785635479129867</v>
       </c>
       <c r="M16">
-        <v>1.037168468952153</v>
+        <v>0.9770862597409566</v>
       </c>
       <c r="N16">
-        <v>1.014039542415781</v>
+        <v>0.9958049641800655</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025342554235766</v>
+        <v>0.9567463135001503</v>
       </c>
       <c r="D17">
-        <v>1.030437864476788</v>
+        <v>0.9849335344714328</v>
       </c>
       <c r="E17">
-        <v>1.029140779957857</v>
+        <v>0.9669629821407908</v>
       </c>
       <c r="F17">
-        <v>1.034372091866654</v>
+        <v>0.9658600507751801</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032559961856622</v>
+        <v>1.029276098804776</v>
       </c>
       <c r="J17">
-        <v>1.031596598453606</v>
+        <v>0.9859745039082429</v>
       </c>
       <c r="K17">
-        <v>1.033823204239409</v>
+        <v>0.9992109931516631</v>
       </c>
       <c r="L17">
-        <v>1.032530700376939</v>
+        <v>0.9815761744954135</v>
       </c>
       <c r="M17">
-        <v>1.037743615309382</v>
+        <v>0.98049438133432</v>
       </c>
       <c r="N17">
-        <v>1.014202854762011</v>
+        <v>0.996837021226915</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02569286675069</v>
+        <v>0.9588704782346648</v>
       </c>
       <c r="D18">
-        <v>1.030708026124561</v>
+        <v>0.9865666937819549</v>
       </c>
       <c r="E18">
-        <v>1.029478832947077</v>
+        <v>0.9689297906343521</v>
       </c>
       <c r="F18">
-        <v>1.034750534743204</v>
+        <v>0.9680587049950501</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03266082878505</v>
+        <v>1.030064279425277</v>
       </c>
       <c r="J18">
-        <v>1.031864617855303</v>
+        <v>0.9875827062176918</v>
       </c>
       <c r="K18">
-        <v>1.034050262150861</v>
+        <v>1.000621403582942</v>
       </c>
       <c r="L18">
-        <v>1.03282534964204</v>
+        <v>0.9833072910530055</v>
       </c>
       <c r="M18">
-        <v>1.038078771655011</v>
+        <v>0.9824525460960127</v>
       </c>
       <c r="N18">
-        <v>1.014297930926823</v>
+        <v>0.9974297097809866</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025812265166568</v>
+        <v>0.9595894743259916</v>
       </c>
       <c r="D19">
-        <v>1.030800099052842</v>
+        <v>0.9871196254752298</v>
       </c>
       <c r="E19">
-        <v>1.029594059693928</v>
+        <v>0.969595713445001</v>
       </c>
       <c r="F19">
-        <v>1.034879529275592</v>
+        <v>0.9688030281488961</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032695167675392</v>
+        <v>1.030330772267418</v>
       </c>
       <c r="J19">
-        <v>1.0319559510578</v>
+        <v>0.9881269895325885</v>
       </c>
       <c r="K19">
-        <v>1.034127626786198</v>
+        <v>1.001098697849234</v>
       </c>
       <c r="L19">
-        <v>1.032925767326775</v>
+        <v>0.9838932573448428</v>
       </c>
       <c r="M19">
-        <v>1.038192997932591</v>
+        <v>0.9831153333503907</v>
       </c>
       <c r="N19">
-        <v>1.014330318814028</v>
+        <v>0.9976302674501021</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02527809349254</v>
+        <v>0.9563530412623983</v>
       </c>
       <c r="D20">
-        <v>1.030388148755477</v>
+        <v>0.9846312335218905</v>
       </c>
       <c r="E20">
-        <v>1.029078578311866</v>
+        <v>0.9665989348886145</v>
       </c>
       <c r="F20">
-        <v>1.034302458832412</v>
+        <v>0.9654530418988746</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032541382424659</v>
+        <v>1.029130033842666</v>
       </c>
       <c r="J20">
-        <v>1.031547272372416</v>
+        <v>0.9856767266037916</v>
       </c>
       <c r="K20">
-        <v>1.033781411893189</v>
+        <v>0.9989498167766957</v>
       </c>
       <c r="L20">
-        <v>1.032476478010482</v>
+        <v>0.981255678199313</v>
       </c>
       <c r="M20">
-        <v>1.037681940402027</v>
+        <v>0.9801318333110901</v>
       </c>
       <c r="N20">
-        <v>1.014185351655622</v>
+        <v>0.9967272627170042</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023537994475494</v>
+        <v>0.9454405867766925</v>
       </c>
       <c r="D21">
-        <v>1.029045689632048</v>
+        <v>0.976251727845901</v>
       </c>
       <c r="E21">
-        <v>1.027399838789037</v>
+        <v>0.9565088717159352</v>
       </c>
       <c r="F21">
-        <v>1.032423192096106</v>
+        <v>0.9541659725602163</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03203764349788</v>
+        <v>1.025060991069675</v>
       </c>
       <c r="J21">
-        <v>1.030214802296969</v>
+        <v>0.9774108116779129</v>
       </c>
       <c r="K21">
-        <v>1.032651902665609</v>
+        <v>0.991697432606907</v>
       </c>
       <c r="L21">
-        <v>1.031012280110298</v>
+        <v>0.9723638564267816</v>
       </c>
       <c r="M21">
-        <v>1.036016692737681</v>
+        <v>0.970071017584597</v>
       </c>
       <c r="N21">
-        <v>1.013711912615023</v>
+        <v>0.993678922540263</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022441213409959</v>
+        <v>0.938248879957567</v>
       </c>
       <c r="D22">
-        <v>1.02819916035781</v>
+        <v>0.970739239182658</v>
       </c>
       <c r="E22">
-        <v>1.026342100150132</v>
+        <v>0.9498713101582811</v>
       </c>
       <c r="F22">
-        <v>1.031239136334464</v>
+        <v>0.9467339596727425</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031718013353716</v>
+        <v>1.022364214447114</v>
       </c>
       <c r="J22">
-        <v>1.029374051959243</v>
+        <v>0.9719607829056049</v>
       </c>
       <c r="K22">
-        <v>1.031938681829184</v>
+        <v>0.9869135307175135</v>
       </c>
       <c r="L22">
-        <v>1.030088934935417</v>
+        <v>0.9665058226807846</v>
       </c>
       <c r="M22">
-        <v>1.034966749194632</v>
+        <v>0.9634400073655692</v>
       </c>
       <c r="N22">
-        <v>1.01341258754947</v>
+        <v>0.9916678105128839</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02302289895955</v>
+        <v>0.9420948761601243</v>
       </c>
       <c r="D23">
-        <v>1.028648158648974</v>
+        <v>0.9736861848814835</v>
       </c>
       <c r="E23">
-        <v>1.026903044216543</v>
+        <v>0.9534197518033513</v>
       </c>
       <c r="F23">
-        <v>1.031867066771559</v>
+        <v>0.9507078410522239</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03188773250074</v>
+        <v>1.023807765662633</v>
       </c>
       <c r="J23">
-        <v>1.02982003462237</v>
+        <v>0.9748755386557856</v>
       </c>
       <c r="K23">
-        <v>1.032317065752057</v>
+        <v>0.9894722086283742</v>
       </c>
       <c r="L23">
-        <v>1.030578681314485</v>
+        <v>0.9696383466506392</v>
       </c>
       <c r="M23">
-        <v>1.035523626463525</v>
+        <v>0.9669861813085566</v>
       </c>
       <c r="N23">
-        <v>1.013571423442333</v>
+        <v>0.9927434716763058</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025307221428903</v>
+        <v>0.956530842936099</v>
       </c>
       <c r="D24">
-        <v>1.030410613978259</v>
+        <v>0.9847679037488479</v>
       </c>
       <c r="E24">
-        <v>1.029106685303691</v>
+        <v>0.9667635201505169</v>
       </c>
       <c r="F24">
-        <v>1.034333923824953</v>
+        <v>0.9656370519267966</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032549778658515</v>
+        <v>1.029196076361796</v>
       </c>
       <c r="J24">
-        <v>1.031569561703078</v>
+        <v>0.9858113553957917</v>
       </c>
       <c r="K24">
-        <v>1.033800297084483</v>
+        <v>0.9990678986895044</v>
       </c>
       <c r="L24">
-        <v>1.032500979682135</v>
+        <v>0.9814005769933134</v>
       </c>
       <c r="M24">
-        <v>1.037709809616799</v>
+        <v>0.9802957446568933</v>
       </c>
       <c r="N24">
-        <v>1.014193261115814</v>
+        <v>0.9967768864686184</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027946652436432</v>
+        <v>0.9720358376183285</v>
       </c>
       <c r="D25">
-        <v>1.032445359818908</v>
+        <v>0.9967011204265653</v>
       </c>
       <c r="E25">
-        <v>1.031654463336633</v>
+        <v>0.9811384991558594</v>
       </c>
       <c r="F25">
-        <v>1.037186188244094</v>
+        <v>0.9816973361000509</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033305514207381</v>
+        <v>1.034918164659535</v>
       </c>
       <c r="J25">
-        <v>1.033587156266984</v>
+        <v>0.9975424007992865</v>
       </c>
       <c r="K25">
-        <v>1.035508469239016</v>
+        <v>1.009350864022813</v>
       </c>
       <c r="L25">
-        <v>1.034720078111733</v>
+        <v>0.9940368469190279</v>
       </c>
       <c r="M25">
-        <v>1.040234367495044</v>
+        <v>0.9945865814872031</v>
       </c>
       <c r="N25">
-        <v>1.014907773973715</v>
+        <v>1.001096460408334</v>
       </c>
     </row>
   </sheetData>
